--- a/Technology/Software/Netflix.xlsx
+++ b/Technology/Software/Netflix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC6D581-4A36-D546-B930-3583A17746C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CF9DC6-D53D-4847-8CD5-BEE1D0564CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1009,6 +1009,8 @@
     <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2384,12 +2386,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>379.43009999999998</v>
-    <v>162.71</v>
-    <v>1.2756000000000001</v>
-    <v>-3.02</v>
-    <v>-8.8210000000000007E-3</v>
-    <v>-0.57999999999999996</v>
-    <v>-1.709E-3</v>
+    <v>164.28</v>
+    <v>1.2494000000000001</v>
+    <v>-5.85</v>
+    <v>-1.6034E-2</v>
+    <v>-0.11</v>
+    <v>-3.0640000000000002E-4</v>
     <v>USD</v>
     <v>Netflix, Inc. is an entertainment services company. The Company has paid memberships in over 190 countries with television (TV) series, films and games across a variety of genres and languages. Its members can play, pause and resume to watch, as much as they want, anytime, anywhere, and can change their plans at any time. It offers a variety of streaming membership plans, the price of which varies by country, and the features of the plan. The pricing of its plans ranges from United States dollar equivalent of approximately $1 to $26 per month. It offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes, and mobile devices. The Company has agreements with various cable, satellite and telecommunications operators to make its service available through the TV set-top boxes of these service providers. The Company acquires, licenses, and produces content, including original programming.</v>
     <v>12800</v>
@@ -2397,25 +2399,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>340.48</v>
+    <v>367.44990000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45022.999981191409</v>
+    <v>45071.99982146953</v>
     <v>0</v>
-    <v>332.63</v>
-    <v>151119500000</v>
+    <v>357.42</v>
+    <v>159590254900</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>339.34</v>
-    <v>37.465699999999998</v>
-    <v>342.35</v>
-    <v>339.33</v>
-    <v>338.75</v>
-    <v>445346800</v>
+    <v>359.61</v>
+    <v>42.255299999999998</v>
+    <v>364.85</v>
+    <v>359</v>
+    <v>358.89</v>
+    <v>444541100</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>4660542</v>
-    <v>6583698</v>
+    <v>6263105</v>
+    <v>6151621</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -2580,9 +2582,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3003,10 +3005,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y96" sqref="Y96"/>
+      <selection pane="bottomRight" activeCell="Y100" sqref="Y100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4460,15 +4462,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>4.7799105187162647</v>
+        <v>5.0478405373305222</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>33.642488163201335</v>
+        <v>35.528262477281451</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>93.368480495857966</v>
+        <v>98.602097028905277</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -9518,10 +9520,10 @@
       <c r="X83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE83" s="61" t="s">
+      <c r="AE83" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="AF83" s="62"/>
+      <c r="AF83" s="64"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9596,10 +9598,10 @@
       <c r="X84" s="1">
         <v>-158543000</v>
       </c>
-      <c r="AE84" s="63" t="s">
+      <c r="AE84" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="AF84" s="64"/>
+      <c r="AF84" s="66"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10345,10 +10347,10 @@
       <c r="X93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE93" s="63" t="s">
+      <c r="AE93" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="AF93" s="64"/>
+      <c r="AF93" s="66"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10508,7 +10510,7 @@
       </c>
       <c r="AF95" s="56" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.2756000000000001</v>
+        <v>1.2494000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10669,7 +10671,7 @@
       </c>
       <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>9.5864580000000005E-2</v>
+        <v>9.4736670000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10745,10 +10747,10 @@
       <c r="X98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE98" s="63" t="s">
+      <c r="AE98" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="AF98" s="64"/>
+      <c r="AF98" s="66"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10909,7 +10911,7 @@
       </c>
       <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>8.6739907886609555E-2</v>
+        <v>8.2515816649800622E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10990,7 +10992,7 @@
       </c>
       <c r="AF101" s="49" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>151119500000</v>
+        <v>159590254900</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11071,7 +11073,7 @@
       </c>
       <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.91326009211339043</v>
+        <v>0.91748418335019932</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11152,7 +11154,7 @@
       </c>
       <c r="AF103" s="38">
         <f>AF99+AF101</f>
-        <v>165472576000</v>
+        <v>173943330900</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11228,10 +11230,10 @@
       <c r="X104" s="11">
         <v>5170582000</v>
       </c>
-      <c r="AE104" s="63" t="s">
+      <c r="AE104" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="AF104" s="64"/>
+      <c r="AF104" s="66"/>
     </row>
     <row r="105" spans="1:32" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11326,18 +11328,28 @@
         <f t="shared" si="8"/>
         <v>-13.263898465618489</v>
       </c>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
+      <c r="Y105" s="59">
+        <v>6540000000</v>
+      </c>
+      <c r="Z105" s="59">
+        <v>8404000000</v>
+      </c>
+      <c r="AA105" s="59">
+        <v>10190000000</v>
+      </c>
+      <c r="AB105" s="59">
+        <v>11230000000</v>
+      </c>
+      <c r="AC105" s="59">
+        <v>13051000000</v>
+      </c>
       <c r="AD105" s="15"/>
       <c r="AE105" s="25" t="s">
         <v>108</v>
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>9.1191223884016084E-2</v>
+        <v>9.038396907603459E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11473,9 +11485,9 @@
       <c r="Z107" s="39"/>
       <c r="AA107" s="39"/>
       <c r="AB107" s="39"/>
-      <c r="AC107" s="42">
-        <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>37273532765.363823</v>
+      <c r="AC107" s="60">
+        <f>AC105*(1+AF107)/(AF108-AF107)</f>
+        <v>204595640017.56537</v>
       </c>
       <c r="AD107" s="43" t="s">
         <v>148</v>
@@ -11504,9 +11516,9 @@
         <f>AB107+AB106</f>
         <v>2223339202.5419698</v>
       </c>
-      <c r="AC108" s="42">
-        <f>AC107+AC106</f>
-        <v>39680538377.286171</v>
+      <c r="AC108" s="60">
+        <f>AC107+AC105</f>
+        <v>217646640017.56537</v>
       </c>
       <c r="AD108" s="43" t="s">
         <v>144</v>
@@ -11516,14 +11528,14 @@
       </c>
       <c r="AF108" s="47">
         <f>AF105</f>
-        <v>9.1191223884016084E-2</v>
+        <v>9.038396907603459E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="59" t="s">
+      <c r="Y109" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="Z109" s="60"/>
+      <c r="Z109" s="62"/>
     </row>
     <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="Y110" s="48" t="s">
@@ -11531,7 +11543,7 @@
       </c>
       <c r="Z110" s="49">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>31996967788.846783</v>
+        <v>147566010225.22818</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11558,7 +11570,7 @@
       </c>
       <c r="Z113" s="49">
         <f>Z110+Z111-Z112</f>
-        <v>23702343788.846786</v>
+        <v>139271386225.22818</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11576,7 +11588,7 @@
       </c>
       <c r="Z115" s="58">
         <f>Z113/Z114</f>
-        <v>51.998596256383706</v>
+        <v>305.53588484360046</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11585,7 +11597,7 @@
       </c>
       <c r="Z116" s="57" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>338.75</v>
+        <v>358.89</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11594,7 +11606,7 @@
       </c>
       <c r="Z117" s="53">
         <f>Z115/Z116-1</f>
-        <v>-0.8464986088372437</v>
+        <v>-0.14866425689319718</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Netflix.xlsx
+++ b/Technology/Software/Netflix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CF9DC6-D53D-4847-8CD5-BEE1D0564CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7C843-D72E-7443-B572-659C41A2D177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2385,13 +2385,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>379.43009999999998</v>
+    <v>383.76</v>
     <v>164.28</v>
-    <v>1.2494000000000001</v>
-    <v>-5.85</v>
-    <v>-1.6034E-2</v>
-    <v>-0.11</v>
-    <v>-3.0640000000000002E-4</v>
+    <v>1.2578</v>
+    <v>19.88</v>
+    <v>5.5376000000000002E-2</v>
+    <v>2.12</v>
+    <v>5.5950000000000001E-3</v>
     <v>USD</v>
     <v>Netflix, Inc. is an entertainment services company. The Company has paid memberships in over 190 countries with television (TV) series, films and games across a variety of genres and languages. Its members can play, pause and resume to watch, as much as they want, anytime, anywhere, and can change their plans at any time. It offers a variety of streaming membership plans, the price of which varies by country, and the features of the plan. The pricing of its plans ranges from United States dollar equivalent of approximately $1 to $26 per month. It offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes, and mobile devices. The Company has agreements with various cable, satellite and telecommunications operators to make its service available through the TV set-top boxes of these service providers. The Company acquires, licenses, and produces content, including original programming.</v>
     <v>12800</v>
@@ -2399,25 +2399,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>367.44990000000001</v>
+    <v>383.76</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.99982146953</v>
+    <v>45072.999959964844</v>
     <v>0</v>
-    <v>357.42</v>
-    <v>159590254900</v>
+    <v>356</v>
+    <v>168427731968</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>359.61</v>
+    <v>361.1</v>
     <v>42.255299999999998</v>
-    <v>364.85</v>
     <v>359</v>
-    <v>358.89</v>
+    <v>378.88</v>
+    <v>381</v>
     <v>444541100</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>6263105</v>
-    <v>6151621</v>
+    <v>9360436</v>
+    <v>6004233</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -2582,9 +2582,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3005,10 +3005,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y100" sqref="Y100"/>
+      <selection pane="bottomRight" activeCell="Y102" sqref="Y102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4462,15 +4462,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>5.0478405373305222</v>
+        <v>5.3273699798991316</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>35.528262477281451</v>
+        <v>37.495677123655696</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>98.602097028905277</v>
+        <v>104.06229114850036</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="AF95" s="56" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.2494000000000001</v>
+        <v>1.2578</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>9.4736670000000009E-2</v>
+        <v>9.5098290000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>8.2515816649800622E-2</v>
+        <v>7.8526165627371761E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="AF101" s="49" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>159590254900</v>
+        <v>168427731968</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11073,7 +11073,7 @@
       </c>
       <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.91748418335019932</v>
+        <v>0.9214738343726282</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11154,7 +11154,7 @@
       </c>
       <c r="AF103" s="38">
         <f>AF99+AF101</f>
-        <v>173943330900</v>
+        <v>182780807968</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>9.038396907603459E-2</v>
+        <v>9.0927646129103923E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11487,7 +11487,7 @@
       <c r="AB107" s="39"/>
       <c r="AC107" s="60">
         <f>AC105*(1+AF107)/(AF108-AF107)</f>
-        <v>204595640017.56537</v>
+        <v>202908427426.69324</v>
       </c>
       <c r="AD107" s="43" t="s">
         <v>148</v>
@@ -11518,7 +11518,7 @@
       </c>
       <c r="AC108" s="60">
         <f>AC107+AC105</f>
-        <v>217646640017.56537</v>
+        <v>215959427426.69324</v>
       </c>
       <c r="AD108" s="43" t="s">
         <v>144</v>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="AF108" s="47">
         <f>AF105</f>
-        <v>9.038396907603459E-2</v>
+        <v>9.0927646129103923E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="Z110" s="49">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>147566010225.22818</v>
+        <v>146114691696.81082</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11570,7 +11570,7 @@
       </c>
       <c r="Z113" s="49">
         <f>Z110+Z111-Z112</f>
-        <v>139271386225.22818</v>
+        <v>137820067696.81082</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11588,7 +11588,7 @@
       </c>
       <c r="Z115" s="58">
         <f>Z113/Z114</f>
-        <v>305.53588484360046</v>
+        <v>302.35195810323756</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11597,7 +11597,7 @@
       </c>
       <c r="Z116" s="57" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>358.89</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11606,7 +11606,7 @@
       </c>
       <c r="Z117" s="53">
         <f>Z115/Z116-1</f>
-        <v>-0.14866425689319718</v>
+        <v>-0.20642530681564941</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Netflix.xlsx
+++ b/Technology/Software/Netflix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7C843-D72E-7443-B572-659C41A2D177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D30BD1-7A07-F849-98BC-DB1CA0B5D632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2385,13 +2385,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>383.76</v>
-    <v>164.28</v>
-    <v>1.2578</v>
-    <v>19.88</v>
-    <v>5.5376000000000002E-2</v>
-    <v>2.12</v>
-    <v>5.5950000000000001E-3</v>
+    <v>448.65</v>
+    <v>169.702</v>
+    <v>1.2627999999999999</v>
+    <v>-1.97</v>
+    <v>-4.6410000000000002E-3</v>
     <v>USD</v>
     <v>Netflix, Inc. is an entertainment services company. The Company has paid memberships in over 190 countries with television (TV) series, films and games across a variety of genres and languages. Its members can play, pause and resume to watch, as much as they want, anytime, anywhere, and can change their plans at any time. It offers a variety of streaming membership plans, the price of which varies by country, and the features of the plan. The pricing of its plans ranges from United States dollar equivalent of approximately $1 to $26 per month. It offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes, and mobile devices. The Company has agreements with various cable, satellite and telecommunications operators to make its service available through the TV set-top boxes of these service providers. The Company acquires, licenses, and produces content, including original programming.</v>
     <v>12800</v>
@@ -2399,25 +2397,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>383.76</v>
+    <v>424.71</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.999959964844</v>
+    <v>45099.999929907033</v>
     <v>0</v>
-    <v>356</v>
-    <v>168427731968</v>
+    <v>418.68009999999998</v>
+    <v>187809723928</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>361.1</v>
-    <v>42.255299999999998</v>
-    <v>359</v>
-    <v>378.88</v>
-    <v>381</v>
+    <v>422.93</v>
+    <v>49.7271</v>
+    <v>424.45</v>
+    <v>422.48</v>
     <v>444541100</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>9360436</v>
-    <v>6004233</v>
+    <v>4148</v>
+    <v>7734501</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -2449,8 +2446,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2471,7 +2466,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2488,7 +2482,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2499,16 +2493,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2574,19 +2565,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2631,9 +2616,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2641,9 +2623,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3005,10 +2984,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y102" sqref="Y102"/>
+      <selection pane="bottomRight" activeCell="Y121" sqref="Y121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4462,15 +4441,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>5.3273699798991316</v>
+        <v>5.9404224796974905</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>37.495677123655696</v>
+        <v>41.810530171035843</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>104.06229114850036</v>
+        <v>116.03736477095237</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10510,7 +10489,7 @@
       </c>
       <c r="AF95" s="56" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.2578</v>
+        <v>1.2627999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10671,7 +10650,7 @@
       </c>
       <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>9.5098290000000002E-2</v>
+        <v>9.5313540000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10911,7 +10890,7 @@
       </c>
       <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>7.8526165627371761E-2</v>
+        <v>7.0997611851002396E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10992,7 +10971,7 @@
       </c>
       <c r="AF101" s="49" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>168427731968</v>
+        <v>187809723928</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11073,7 +11052,7 @@
       </c>
       <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.9214738343726282</v>
+        <v>0.9290023881489976</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11154,7 +11133,7 @@
       </c>
       <c r="AF103" s="38">
         <f>AF99+AF101</f>
-        <v>182780807968</v>
+        <v>202162799928</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11349,7 +11328,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>9.0927646129103923E-2</v>
+        <v>9.1527466813682984E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11487,7 +11466,7 @@
       <c r="AB107" s="39"/>
       <c r="AC107" s="60">
         <f>AC105*(1+AF107)/(AF108-AF107)</f>
-        <v>202908427426.69324</v>
+        <v>201078977461.51123</v>
       </c>
       <c r="AD107" s="43" t="s">
         <v>148</v>
@@ -11518,7 +11497,7 @@
       </c>
       <c r="AC108" s="60">
         <f>AC107+AC105</f>
-        <v>215959427426.69324</v>
+        <v>214129977461.51123</v>
       </c>
       <c r="AD108" s="43" t="s">
         <v>144</v>
@@ -11528,7 +11507,7 @@
       </c>
       <c r="AF108" s="47">
         <f>AF105</f>
-        <v>9.0927646129103923E-2</v>
+        <v>9.1527466813682984E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11543,7 +11522,7 @@
       </c>
       <c r="Z110" s="49">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>146114691696.81082</v>
+        <v>144541689107.88553</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11570,7 +11549,7 @@
       </c>
       <c r="Z113" s="49">
         <f>Z110+Z111-Z112</f>
-        <v>137820067696.81082</v>
+        <v>136247065107.88553</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11588,7 +11567,7 @@
       </c>
       <c r="Z115" s="58">
         <f>Z113/Z114</f>
-        <v>302.35195810323756</v>
+        <v>298.9010788458765</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11596,8 +11575,8 @@
         <v>157</v>
       </c>
       <c r="Z116" s="57" cm="1">
-        <f t="array" ref="Z116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>381</v>
+        <f t="array" ref="Z116">_FV(A1,"Price",TRUE)</f>
+        <v>422.48</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11606,7 +11585,7 @@
       </c>
       <c r="Z117" s="53">
         <f>Z115/Z116-1</f>
-        <v>-0.20642530681564941</v>
+        <v>-0.29250833448713198</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Netflix.xlsx
+++ b/Technology/Software/Netflix.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D30BD1-7A07-F849-98BC-DB1CA0B5D632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D465BC-37F0-D349-B93B-CF76BBA97A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +544,53 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +753,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +859,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +873,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,100 +920,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,7 +1049,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1079,19 +1060,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>NFLX</a:t>
+              <a:t>Netflix</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.46290751279852393"/>
-          <c:y val="3.5623409669211195E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1105,7 +1079,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1125,10 +1099,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4211221122112212E-2"/>
-          <c:y val="0.14129770992366411"/>
-          <c:w val="0.85110231023102323"/>
-          <c:h val="0.74038548616537436"/>
+          <c:x val="0.10585737976782753"/>
+          <c:y val="0.15232149978211876"/>
+          <c:w val="0.82648092868988399"/>
+          <c:h val="0.62868971739183854"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1182,6 +1156,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$X$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$X$3</c:f>
@@ -1262,7 +1314,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F035-1B4D-B7E6-09A112BF7C85}"/>
+              <c16:uniqueId val="{00000000-35ED-554D-A2FB-FB42391F20C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1271,11 +1323,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1313,9 +1365,87 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$X$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$X$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$X$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1323,77 +1453,77 @@
                   <c:v>-58274000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8821000</c:v>
+                  <c:v>-38618000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4530000</c:v>
+                  <c:v>-21947000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57503000</c:v>
+                  <c:v>6512000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109980000</c:v>
+                  <c:v>21595000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115337000</c:v>
+                  <c:v>42027000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>237454000</c:v>
+                  <c:v>49082000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>336487000</c:v>
+                  <c:v>66952000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>374336000</c:v>
+                  <c:v>83026000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>456201000</c:v>
+                  <c:v>115860000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>325424000</c:v>
+                  <c:v>160853000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>423294000</c:v>
+                  <c:v>226126000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1752549000</c:v>
+                  <c:v>17152000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2444898000</c:v>
+                  <c:v>112403000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3184446000</c:v>
+                  <c:v>266799000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3852871000</c:v>
+                  <c:v>122641000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5335599000</c:v>
+                  <c:v>186678000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7169064000</c:v>
+                  <c:v>558929000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9303408000</c:v>
+                  <c:v>1211242000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12008080000</c:v>
+                  <c:v>1866916000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15507911000</c:v>
+                  <c:v>2761395000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19044502000</c:v>
+                  <c:v>5116228000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20332955000</c:v>
+                  <c:v>4491924000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F035-1B4D-B7E6-09A112BF7C85}"/>
+              <c16:uniqueId val="{00000001-35ED-554D-A2FB-FB42391F20C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1402,11 +1532,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1444,9 +1574,87 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$X$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$X$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$X$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1524,7 +1732,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F035-1B4D-B7E6-09A112BF7C85}"/>
+              <c16:uniqueId val="{00000002-35ED-554D-A2FB-FB42391F20C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1538,11 +1746,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1830675631"/>
-        <c:axId val="1830183135"/>
+        <c:axId val="1132513391"/>
+        <c:axId val="1132515391"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1830675631"/>
+        <c:axId val="1132513391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,7 +1778,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1582,7 +1790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1830183135"/>
+        <c:crossAx val="1132515391"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1590,9 +1798,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1830183135"/>
+        <c:axId val="1132515391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1638,7 +1847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1830675631"/>
+        <c:crossAx val="1132513391"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1652,6 +1861,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34524281479740404"/>
+          <c:y val="0.89957973614349473"/>
+          <c:w val="0.31482106527728809"/>
+          <c:h val="6.334030569554483E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2229,22 +2448,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924CDF05-E77A-7C60-3034-354D31E9F4A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB36F5D-6006-E7F4-404C-1FF0BD329F02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,6 +2482,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2981,13 +3254,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG118"/>
+  <dimension ref="A1:AG132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y121" sqref="Y121"/>
+      <selection pane="bottomRight" activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3070,19 +3343,19 @@
       <c r="X1" s="8">
         <v>2022</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="23">
         <v>2023</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="23">
         <v>2024</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="23">
         <v>2025</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2026</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3091,82 +3364,82 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
@@ -3248,146 +3521,146 @@
       <c r="X3" s="1">
         <v>31615550000</v>
       </c>
-      <c r="Y3" s="28">
-        <v>34364000000</v>
-      </c>
-      <c r="Z3" s="28">
-        <v>38000000000</v>
-      </c>
-      <c r="AA3" s="28">
-        <v>41000000000</v>
-      </c>
-      <c r="AB3" s="28">
-        <v>44000000000</v>
-      </c>
-      <c r="AC3" s="28">
-        <v>47000000000</v>
+      <c r="Y3" s="24">
+        <v>34670000000</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>38252000000</v>
+      </c>
+      <c r="AA3" s="24">
+        <v>42609000000</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>46316000000</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>50333000000</v>
       </c>
       <c r="AD3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AG3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="68">
         <f>(C3/B3)-1</f>
         <v>1.1148938541260378</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="68">
         <f>(D3/C3)-1</f>
         <v>1.0129360311940143</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="68">
         <f>(E3/D3)-1</f>
         <v>0.78162506707851787</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="68">
         <f t="shared" ref="F4:AC4" si="0">(F3/E3)-1</f>
         <v>0.85947113424403931</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="68">
         <f t="shared" si="0"/>
         <v>0.34763979866779393</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="68">
         <f t="shared" si="0"/>
         <v>0.46092202875055155</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="68">
         <f t="shared" si="0"/>
         <v>0.20937932695201966</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="68">
         <f t="shared" si="0"/>
         <v>0.13217930210562989</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="68">
         <f t="shared" si="0"/>
         <v>0.22394426161515568</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="68">
         <f t="shared" si="0"/>
         <v>0.2947764701374449</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="68">
         <f t="shared" si="0"/>
         <v>0.48179966475926239</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="68">
         <f t="shared" si="0"/>
         <v>0.12628967879380015</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="68">
         <f t="shared" si="0"/>
         <v>0.21203109094828276</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="68">
         <f t="shared" si="0"/>
         <v>0.25833306283006152</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="68">
         <f t="shared" si="0"/>
         <v>0.23159576184233854</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="68">
         <f t="shared" si="0"/>
         <v>0.30255249973043785</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="68">
         <f t="shared" si="0"/>
         <v>0.32410273785598798</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="68">
         <f t="shared" si="0"/>
         <v>0.35078497180252355</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="68">
         <f t="shared" si="0"/>
         <v>0.27618157667990073</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="68">
         <f t="shared" si="0"/>
         <v>0.24010228588401517</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="68">
         <f t="shared" si="0"/>
         <v>0.18810119484449861</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="68">
         <f t="shared" si="0"/>
         <v>6.45739131769969E-2</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>8.6933486844290142E-2</v>
+        <v>9.6612268329983264E-2</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1058084041438716</v>
+        <v>0.10331698875108164</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>7.8947368421052655E-2</v>
+        <v>0.11390254104360564</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>7.3170731707317138E-2</v>
+        <v>8.7000398976742055E-2</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>6.8181818181818121E-2</v>
+        <v>8.6730287589601884E-2</v>
       </c>
       <c r="AD4" s="17">
         <f>(X4+W4+V4)/3</f>
@@ -3402,7 +3675,7 @@
         <v>0.40328875071083564</v>
       </c>
       <c r="AG4" s="17">
-        <f>(X105+W105+V105)/3</f>
+        <f>(X106+W106+V106)/3</f>
         <v>-5.3155398977236024</v>
       </c>
     </row>
@@ -3554,16 +3827,16 @@
         <v>12447265000</v>
       </c>
       <c r="AD6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AG6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -3652,7 +3925,7 @@
         <v>0.1421</v>
       </c>
       <c r="AG7" s="20">
-        <f>X106/X3</f>
+        <f>X107/X3</f>
         <v>5.1194048498286446E-2</v>
       </c>
     </row>
@@ -3732,7 +4005,7 @@
     </row>
     <row r="9" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3827,16 +4100,16 @@
         <v>8.5750239992661834E-2</v>
       </c>
       <c r="AD9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AF9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AF9" s="19" t="s">
+      <c r="AG9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AG9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -3847,28 +4120,28 @@
         <v>-8490000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1">
         <v>51333000</v>
@@ -3937,28 +4210,28 @@
         <v>25727000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1">
         <v>237744000</v>
@@ -4011,28 +4284,28 @@
         <v>17237000</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" s="1">
         <v>289077000</v>
@@ -4077,21 +4350,21 @@
         <v>4103393000</v>
       </c>
       <c r="AD12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AE12" s="19" t="s">
+      <c r="AG12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AF12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4237,43 +4510,43 @@
         <v>-4560000</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1">
         <v>-1829600000</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -4350,16 +4623,16 @@
         <v>6814434000</v>
       </c>
       <c r="AD15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AE15" s="19" t="s">
+      <c r="AG15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AF15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -4435,53 +4708,53 @@
       <c r="X16" s="1">
         <v>25982719000</v>
       </c>
-      <c r="AD16" s="29">
+      <c r="AD16" s="25">
         <f>(X35+W35+V35+U35+T35)/5</f>
         <v>2.0105070808885605E-3</v>
       </c>
-      <c r="AE16" s="30">
+      <c r="AE16" s="32">
         <f>AF101/X3</f>
         <v>5.9404224796974905</v>
       </c>
-      <c r="AF16" s="30">
+      <c r="AF16" s="32">
         <f>AF101/X28</f>
         <v>41.810530171035843</v>
       </c>
-      <c r="AG16" s="31">
-        <f>AF101/X106</f>
+      <c r="AG16" s="33">
+        <f>AF101/X107</f>
         <v>116.03736477095237</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1">
         <v>6475000</v>
@@ -4526,12 +4799,12 @@
         <v>706212000</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
         <v>29797000</v>
@@ -4600,10 +4873,19 @@
         <v>14362814000</v>
       </c>
       <c r="AD18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AE18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4676,14 +4958,41 @@
       <c r="X19" s="10">
         <v>20332955000</v>
       </c>
-      <c r="AD19" s="32">
+      <c r="Y19" s="36">
+        <v>7405000000</v>
+      </c>
+      <c r="Z19" s="36">
+        <v>9177000000</v>
+      </c>
+      <c r="AA19" s="36">
+        <v>11151000000</v>
+      </c>
+      <c r="AB19" s="36">
+        <v>12339000000</v>
+      </c>
+      <c r="AC19" s="36">
+        <v>14667000000</v>
+      </c>
+      <c r="AD19" s="26">
         <f>X40-X56-X61</f>
         <v>-8294624000</v>
       </c>
+      <c r="AE19" s="32">
+        <f>AF101/Y3</f>
+        <v>5.417067318373233</v>
+      </c>
+      <c r="AF19" s="32">
+        <f>AF101/Y28</f>
+        <v>35.269431723568076</v>
+      </c>
+      <c r="AG19" s="33">
+        <f>AF101/Y106</f>
+        <v>28.242063748571429</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4699,7 +5008,7 @@
         <v>11.693818984547461</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:X20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AC20" si="3">(F19/E19)-1</f>
         <v>0.91259586456358788</v>
       </c>
       <c r="G20" s="15">
@@ -4774,8 +5083,28 @@
         <f t="shared" si="3"/>
         <v>6.7654853878562848E-2</v>
       </c>
+      <c r="Y20" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.63581289586289835</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.23929777177582712</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.21510297482837526</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10653753026634383</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.18867007050814499</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4848,8 +5177,34 @@
       <c r="X21" s="2">
         <v>0.6431</v>
       </c>
+      <c r="Y21" s="37">
+        <f>Y19/Y3</f>
+        <v>0.21358523218921258</v>
+      </c>
+      <c r="Z21" s="37">
+        <f t="shared" ref="Z21:AC21" si="4">Z19/Z3</f>
+        <v>0.2399090243647391</v>
+      </c>
+      <c r="AA21" s="37">
+        <f t="shared" si="4"/>
+        <v>0.2617052735337605</v>
+      </c>
+      <c r="AB21" s="37">
+        <f t="shared" si="4"/>
+        <v>0.26640901632265307</v>
+      </c>
+      <c r="AC21" s="37">
+        <f t="shared" si="4"/>
+        <v>0.29139928078993899</v>
+      </c>
+      <c r="AF21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG21" s="19" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4922,8 +5277,16 @@
       <c r="X22" s="10">
         <v>5632831000</v>
       </c>
+      <c r="AF22" s="34">
+        <f>(-1*X98)/AF101</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="35">
+        <f>X107/AF101</f>
+        <v>8.6179137381645361E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4997,7 +5360,7 @@
         <v>0.1782</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5008,10 +5371,10 @@
         <v>-671000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="1">
         <v>2422000</v>
@@ -5071,7 +5434,7 @@
         <v>-368902000</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5079,13 +5442,13 @@
         <v>-58274000</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="10">
         <v>21776000</v>
@@ -5145,7 +5508,7 @@
         <v>5263929000</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5153,13 +5516,13 @@
         <v>-1.6234999999999999</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="2">
         <v>4.2999999999999997E-2</v>
@@ -5219,21 +5582,21 @@
         <v>0.16650000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1">
         <v>181000</v>
@@ -5293,7 +5656,7 @@
         <v>772005000</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5366,10 +5729,25 @@
       <c r="X28" s="11">
         <v>4491924000</v>
       </c>
+      <c r="Y28" s="38">
+        <v>5325000000</v>
+      </c>
+      <c r="Z28" s="38">
+        <v>6833000000</v>
+      </c>
+      <c r="AA28" s="38">
+        <v>8325000000</v>
+      </c>
+      <c r="AB28" s="38">
+        <v>9374000000</v>
+      </c>
+      <c r="AC28" s="38">
+        <v>10908000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5385,83 +5763,103 @@
         <v>-1.2967148129584909</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:X29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AC29" si="5">(F28/E28)-1</f>
         <v>2.3161855036855035</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94614494095855517</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16786827515644709</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36408459312986441</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24008244712629945</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.39546648037964016</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38833937510788874</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.40579286677898452</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.92414848358879564</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5533465485074629</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.37359323149738</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.54032436403434803</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52215001508467807</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9940807165279253</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.167076677001909</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.54132369914517486</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.47912118167073392</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85276934303133012</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.12202427256955706</v>
       </c>
+      <c r="Y29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.18546084038821675</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.28319248826291088</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.2183521147373042</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.12600600600600598</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.16364412203968426</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5534,8 +5932,28 @@
       <c r="X30" s="2">
         <v>0.1421</v>
       </c>
+      <c r="Y30" s="39">
+        <f>Y28/Y3</f>
+        <v>0.15359100086530142</v>
+      </c>
+      <c r="Z30" s="39">
+        <f t="shared" ref="Z30:AC30" si="6">Z28/Z3</f>
+        <v>0.17863118268325839</v>
+      </c>
+      <c r="AA30" s="39">
+        <f t="shared" si="6"/>
+        <v>0.19538125748081392</v>
+      </c>
+      <c r="AB30" s="39">
+        <f t="shared" si="6"/>
+        <v>0.20239226185335521</v>
+      </c>
+      <c r="AC30" s="39">
+        <f t="shared" si="6"/>
+        <v>0.21671666699779468</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5608,8 +6026,23 @@
       <c r="X31" s="12">
         <v>10.1</v>
       </c>
+      <c r="Y31" s="40">
+        <v>12.02</v>
+      </c>
+      <c r="Z31" s="40">
+        <v>15.42</v>
+      </c>
+      <c r="AA31" s="40">
+        <v>18.79</v>
+      </c>
+      <c r="AB31" s="40">
+        <v>21.15</v>
+      </c>
+      <c r="AC31" s="40">
+        <v>24.61</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5833,7 +6266,7 @@
     </row>
     <row r="35" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -5841,87 +6274,87 @@
         <v>0.29137199434229138</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:X35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:X35" si="7">(D34-C34)/C34</f>
         <v>2.8614457831325302</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4592256417529428</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.48545735004134599</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2439540741427535E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4290424005616775E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.5045240680419832E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-8.8038083074511622E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.0341842256031573E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.0391673514105718E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1969652327637006E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.3411502878478538E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.1525872606274617E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.543753394447096E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0565116822916788E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.0314350129222647E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8607005097434869E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.9146400963264353E-3</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1545859889549779E-3</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4076787710424668E-3</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.4243694518810769E-3</v>
       </c>
     </row>
@@ -5930,73 +6363,73 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="21" x14ac:dyDescent="0.25">
@@ -6004,73 +6437,73 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -6078,10 +6511,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1">
         <v>59814000</v>
@@ -6152,10 +6585,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1">
         <v>43796000</v>
@@ -6164,13 +6597,13 @@
         <v>45297000</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1">
         <v>207703000</v>
@@ -6203,19 +6636,19 @@
         <v>266206000</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1">
         <v>911276000</v>
@@ -6226,10 +6659,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1">
         <v>103610000</v>
@@ -6300,61 +6733,61 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U41" s="1">
         <v>979068000</v>
@@ -6374,31 +6807,31 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1">
         <v>37329000</v>
@@ -6407,40 +6840,40 @@
         <v>181006000</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -6448,10 +6881,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1">
         <v>3465000</v>
@@ -6522,10 +6955,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10">
         <v>107075000</v>
@@ -6596,10 +7029,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1">
         <v>15592000</v>
@@ -6670,73 +7103,73 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -6744,10 +7177,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1">
         <v>6094000</v>
@@ -6768,7 +7201,7 @@
         <v>132455000</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1">
         <v>108810000</v>
@@ -6777,7 +7210,7 @@
         <v>180973000</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1">
         <v>1506008000</v>
@@ -6818,10 +7251,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1">
         <v>6094000</v>
@@ -6842,7 +7275,7 @@
         <v>132455000</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1">
         <v>108810000</v>
@@ -6851,7 +7284,7 @@
         <v>180973000</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1">
         <v>1506008000</v>
@@ -6892,73 +7325,73 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -6966,19 +7399,19 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1">
         <v>21239000</v>
@@ -6999,40 +7432,40 @@
         <v>17467000</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -7040,10 +7473,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1">
         <v>1769000</v>
@@ -7114,10 +7547,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1">
         <v>23455000</v>
@@ -7188,73 +7621,73 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7262,10 +7695,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11">
         <v>130530000</v>
@@ -7336,10 +7769,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1">
         <v>20350000</v>
@@ -7410,10 +7843,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>1231000</v>
@@ -7425,49 +7858,49 @@
         <v>68000</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1">
         <v>1152000</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1">
         <v>499878000</v>
@@ -7484,73 +7917,73 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -7558,10 +7991,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1">
         <v>9743000</v>
@@ -7632,10 +8065,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1">
         <v>9102000</v>
@@ -7706,10 +8139,10 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10">
         <v>40426000</v>
@@ -7780,31 +8213,31 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1">
         <v>200000000</v>
@@ -7854,73 +8287,73 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -7928,73 +8361,73 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8002,10 +8435,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1">
         <v>748000</v>
@@ -8076,10 +8509,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1">
         <v>748000</v>
@@ -8150,73 +8583,73 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8224,10 +8657,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10">
         <v>41174000</v>
@@ -8298,10 +8731,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1">
         <v>22000</v>
@@ -8372,10 +8805,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1">
         <v>-159213000</v>
@@ -8446,10 +8879,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1">
         <v>-64727000</v>
@@ -8520,10 +8953,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1">
         <v>313274000</v>
@@ -8580,7 +9013,7 @@
         <v>479000</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W71" s="1">
         <v>-824190000</v>
@@ -8594,10 +9027,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10">
         <v>89356000</v>
@@ -8668,10 +9101,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11">
         <v>130530000</v>
@@ -8742,73 +9175,73 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="21" x14ac:dyDescent="0.25">
@@ -8816,73 +9249,73 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8890,7 +9323,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1">
         <v>-38618000</v>
@@ -8964,7 +9397,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1">
         <v>29797000</v>
@@ -9038,19 +9471,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1">
         <v>-34905000</v>
@@ -9112,31 +9545,31 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1">
         <v>12618000</v>
@@ -9183,98 +9616,98 @@
     </row>
     <row r="80" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:X80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:X80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.5544717647277179E-3</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2945378879833536E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.921688884367578E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0488285481710767E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6710244362749916E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0934823175144824E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8397344587242355E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9667252843470862E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5583124292882241E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0302018298832474E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0111480956936507E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6609820365260822E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3577416596302412E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8201549553937855E-2</v>
       </c>
     </row>
@@ -9283,7 +9716,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1">
         <v>6937000</v>
@@ -9357,73 +9790,73 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="21" x14ac:dyDescent="0.25">
@@ -9431,109 +9864,109 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE83" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF83" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AE83" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF83" s="42"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1">
         <v>-2256000</v>
@@ -9577,17 +10010,17 @@
       <c r="X84" s="1">
         <v>-158543000</v>
       </c>
-      <c r="AE84" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF84" s="66"/>
+      <c r="AE84" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF84" s="43"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1">
         <v>66649000</v>
@@ -9655,10 +10088,10 @@
       <c r="X85" s="1">
         <v>-190197000</v>
       </c>
-      <c r="AE85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF85" s="24">
+      <c r="AE85" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF85" s="45">
         <f>X17</f>
         <v>706212000</v>
       </c>
@@ -9668,7 +10101,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1">
         <v>6731000</v>
@@ -9736,10 +10169,10 @@
       <c r="X86" s="1">
         <v>-16479296000</v>
       </c>
-      <c r="AE86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF86" s="24">
+      <c r="AE86" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF86" s="45">
         <f>X56</f>
         <v>0</v>
       </c>
@@ -9749,7 +10182,7 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10">
         <v>4847000</v>
@@ -9817,10 +10250,10 @@
       <c r="X87" s="10">
         <v>2026257000</v>
       </c>
-      <c r="AE87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF87" s="24">
+      <c r="AE87" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF87" s="45">
         <f>X61</f>
         <v>14353076000</v>
       </c>
@@ -9830,7 +10263,7 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1">
         <v>-12084000</v>
@@ -9898,114 +10331,114 @@
       <c r="X88" s="1">
         <v>-407729000</v>
       </c>
-      <c r="AE88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF88" s="34">
+      <c r="AE88" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF88" s="47">
         <f>AF85/(AF86+AF87)</f>
         <v>4.9202832897979498E-2</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:X89" si="9">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.15918431868479291</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.17552321243930213</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.23689130666353223</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.9555852303705051E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.4881877067719317E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.19810767965003109</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.7172913866626842E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.15219970380922443</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.7499762014382114E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.5646263221779089E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.5503450221355268E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1486218034501046E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.2376781949827206E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.2666731581410354E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.3459377822382764E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.219080909951443E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.4821367804033161E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1013185038869302E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.2553551724666554E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.9920062589074052E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.7664076893932099E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.2896470249608183E-2</v>
+      </c>
+      <c r="AE89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:X89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.15918431868479291</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.17552321243930213</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.23689130666353223</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.9555852303705051E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.4881877067719317E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.19810767965003109</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.7172913866626842E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.15219970380922443</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.7499762014382114E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.5646263221779089E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.5503450221355268E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.1486218034501046E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.2376781949827206E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.2666731581410354E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.3459377822382764E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.219080909951443E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.4821367804033161E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.1013185038869302E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.2553551724666554E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.9920062589074052E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.7664076893932099E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.2896470249608183E-2</v>
-      </c>
-      <c r="AE89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF89" s="24">
+      <c r="AF89" s="45">
         <f>X27</f>
         <v>772005000</v>
       </c>
@@ -10015,67 +10448,67 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1">
         <v>-788349000</v>
@@ -10083,10 +10516,10 @@
       <c r="X90" s="1">
         <v>-757387000</v>
       </c>
-      <c r="AE90" s="23" t="s">
+      <c r="AE90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AF90" s="24">
+      <c r="AF90" s="45">
         <f>X25</f>
         <v>5263929000</v>
       </c>
@@ -10096,10 +10529,10 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>-43022000</v>
@@ -10111,10 +10544,10 @@
         <v>-586000</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1">
         <v>-405340000</v>
@@ -10150,24 +10583,24 @@
         <v>-74819000</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1">
         <v>-911276000</v>
       </c>
-      <c r="AE91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF91" s="34">
+      <c r="AE91" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF91" s="47">
         <f>AF89/AF90</f>
         <v>0.14665946292208729</v>
       </c>
@@ -10177,25 +10610,25 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>45013000</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1">
         <v>200832000</v>
@@ -10231,24 +10664,24 @@
         <v>342859000</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF92" s="36">
+        <v>91</v>
+      </c>
+      <c r="AE92" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF92" s="47">
         <f>AF88*(1-AF91)</f>
         <v>4.1986771850916614E-2</v>
       </c>
@@ -10258,7 +10691,7 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>-586000</v>
@@ -10324,19 +10757,19 @@
         <v>-26919000</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE93" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF93" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="AE93" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF93" s="43"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10">
         <v>-12670000</v>
@@ -10404,11 +10837,12 @@
       <c r="X94" s="10">
         <v>-2076392000</v>
       </c>
-      <c r="AE94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF94" s="37">
-        <v>4.095E-2</v>
+      <c r="AE94" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF94" s="59">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10416,31 +10850,31 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1">
         <v>-21158000</v>
@@ -10464,19 +10898,19 @@
         <v>-545000</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1">
         <v>-500000000</v>
@@ -10484,10 +10918,10 @@
       <c r="X95" s="1">
         <v>-700000000</v>
       </c>
-      <c r="AE95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF95" s="56" cm="1">
+      <c r="AE95" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF95" s="49" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
         <v>1.2627999999999999</v>
       </c>
@@ -10497,7 +10931,7 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1">
         <v>125000</v>
@@ -10565,10 +10999,10 @@
       <c r="X96" s="1">
         <v>35746000</v>
       </c>
-      <c r="AE96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF96" s="37">
+      <c r="AE96" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10577,7 +11011,7 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1">
         <v>-12000</v>
@@ -10586,16 +11020,16 @@
         <v>-6000</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1">
         <v>-99860000</v>
@@ -10613,44 +11047,44 @@
         <v>-199666000</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" s="1">
         <v>-600022000</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF97" s="36">
+        <v>91</v>
+      </c>
+      <c r="AE97" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF97" s="47">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>9.5313540000000002E-2</v>
+        <v>9.5794463999999996E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10658,85 +11092,85 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE98" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF98" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="X98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF98" s="43"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1">
         <v>8946000</v>
@@ -10802,12 +11236,12 @@
         <v>-224168000</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF99" s="24">
+        <v>91</v>
+      </c>
+      <c r="AE99" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF99" s="45">
         <f>AF86+AF87</f>
         <v>14353076000</v>
       </c>
@@ -10817,7 +11251,7 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10">
         <v>9059000</v>
@@ -10885,10 +11319,10 @@
       <c r="X100" s="10">
         <v>-664254000</v>
       </c>
-      <c r="AE100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF100" s="34">
+      <c r="AE100" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF100" s="47">
         <f>AF99/AF103</f>
         <v>7.0997611851002396E-2</v>
       </c>
@@ -10898,16 +11332,16 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1">
         <v>-222000</v>
@@ -10916,22 +11350,22 @@
         <v>222000</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1">
         <v>-197000</v>
@@ -10966,10 +11400,10 @@
       <c r="X101" s="1">
         <v>-170140000</v>
       </c>
-      <c r="AE101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF101" s="49" cm="1">
+      <c r="AE101" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF101" s="50" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
         <v>187809723928</v>
       </c>
@@ -10979,7 +11413,7 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10">
         <v>1236000</v>
@@ -11047,10 +11481,10 @@
       <c r="X102" s="10">
         <v>-884529000</v>
       </c>
-      <c r="AE102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF102" s="34">
+      <c r="AE102" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF102" s="47">
         <f>AF101/AF103</f>
         <v>0.9290023881489976</v>
       </c>
@@ -11060,7 +11494,7 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1">
         <v>14895000</v>
@@ -11128,10 +11562,10 @@
       <c r="X103" s="1">
         <v>6055111000</v>
       </c>
-      <c r="AE103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF103" s="38">
+      <c r="AE103" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF103" s="51">
         <f>AF99+AF101</f>
         <v>202162799928</v>
       </c>
@@ -11141,7 +11575,7 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11">
         <v>16131000</v>
@@ -11209,392 +11643,470 @@
       <c r="X104" s="11">
         <v>5170582000</v>
       </c>
-      <c r="AE104" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF104" s="66"/>
+      <c r="AE104" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF104" s="43"/>
     </row>
     <row r="105" spans="1:32" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>164</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:W105" si="10">((B22*(1-$AF$91))+B77+B88-B81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-2.8368108332181841</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.90325735349432024</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>4.2414624505928851</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-1.8927825411547694E-3</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:X105" si="8">(H106/G106)-1</f>
-        <v>-0.61909367019749473</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.8995755315772769</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.69096863778606332</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.6539902536155942</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.13219039834224233</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.10729202384542602</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.2498488975114725</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.66791106067167405</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.7571383605377937</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>6.1750642412503023</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.80571820452949727</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.21349952435896968</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.43718535298588646</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>8.5497773772723384E-2</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.6143104112048408</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.0684108163474766</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>-13.263898465618489</v>
-      </c>
-      <c r="Y105" s="59">
-        <v>6540000000</v>
-      </c>
-      <c r="Z105" s="59">
-        <v>8404000000</v>
-      </c>
-      <c r="AA105" s="59">
-        <v>10190000000</v>
-      </c>
-      <c r="AB105" s="59">
-        <v>11230000000</v>
-      </c>
-      <c r="AC105" s="59">
-        <v>13051000000</v>
-      </c>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF105" s="26">
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-20991308.173799455</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>-26307190.748773396</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>-32755861.118187577</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>66289552.754605919</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>40830634.865325883</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>-20469922.644663334</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>227971376.70055962</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>162883995.29818887</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>421041329.34619749</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>18933363.277316213</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>195831069.09781647</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>1677281200.1295991</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>2262527751.6201301</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>2918564860.5733476</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>3543883723.0923896</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>4949037762.5984316</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>6813784788.2959671</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>8558548416.9714298</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>11246063507.047302</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>14369384977.917446</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>17442196636.993965</v>
+      </c>
+      <c r="X105" s="1">
+        <f>((X22*(1-$AF$91))+X77+X88-X81)</f>
+        <v>19519895030.809116</v>
+      </c>
+      <c r="Y105" s="29">
+        <f>X105*(1+$AF$106)</f>
+        <v>21423328735.234932</v>
+      </c>
+      <c r="Z105" s="29">
+        <f t="shared" ref="Z105:AC105" si="11">Y105*(1+$AF$106)</f>
+        <v>23512371012.935642</v>
+      </c>
+      <c r="AA105" s="29">
+        <f t="shared" si="11"/>
+        <v>25805121019.344418</v>
+      </c>
+      <c r="AB105" s="29">
+        <f t="shared" si="11"/>
+        <v>28321442803.733192</v>
+      </c>
+      <c r="AC105" s="29">
+        <f t="shared" si="11"/>
+        <v>31083137408.417713</v>
+      </c>
+      <c r="AD105" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE105" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF105" s="53">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>9.1527466813682984E-2</v>
+        <v>9.1974246358201145E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-7237000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>13293000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>25300000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>132609000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>132358000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>50416000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>247017000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>76336000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>278931000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>242059000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>268030000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>-66967000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>-22239000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>-128033000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>-918645000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>-1658814000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>-2012970000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>-2893011000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>-3140357000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>1929154000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>-131975000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>1618528000</v>
-      </c>
-      <c r="Y106" s="55">
-        <f>X106*(1+$AF$106)</f>
-        <v>1752231946.7040081</v>
-      </c>
-      <c r="Z106" s="55">
-        <f t="shared" ref="Z106:AC106" si="9">Y106*(1+$AF$106)</f>
-        <v>1896980957.4194069</v>
-      </c>
-      <c r="AA106" s="55">
-        <f t="shared" si="9"/>
-        <v>2053687446.7908125</v>
-      </c>
-      <c r="AB106" s="55">
-        <f t="shared" si="9"/>
-        <v>2223339202.5419698</v>
-      </c>
-      <c r="AC106" s="55">
-        <f t="shared" si="9"/>
-        <v>2407005611.9223471</v>
-      </c>
-      <c r="AD106" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE106" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF106" s="41">
+      <c r="A106" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>-2.8368108332181841</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>0.90325735349432024</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>4.2414624505928851</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>-1.8927825411547694E-3</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-0.61909367019749473</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>3.8995755315772769</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>-0.69096863778606332</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>2.6539902536155942</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>-0.13219039834224233</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>0.10729202384542602</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>-1.2498488975114725</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>-0.66791106067167405</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>4.7571383605377937</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>6.1750642412503023</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>0.80571820452949727</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>0.21349952435896968</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>0.43718535298588646</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>8.5497773772723384E-2</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>-1.6143104112048408</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>-1.0684108163474766</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>-13.263898465618489</v>
+      </c>
+      <c r="Y106" s="30">
+        <v>6650000000</v>
+      </c>
+      <c r="Z106" s="30">
+        <v>8544000000</v>
+      </c>
+      <c r="AA106" s="30">
+        <v>10269000000</v>
+      </c>
+      <c r="AB106" s="30">
+        <v>11224000000</v>
+      </c>
+      <c r="AC106" s="30">
+        <v>13373000000</v>
+      </c>
+      <c r="AD106" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE106" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF106" s="55">
         <f>(SUM(Y4:AC4)/5)</f>
-        <v>8.2608361859669938E-2</v>
+        <v>9.7512496938202894E-2</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="39"/>
-      <c r="Z107" s="39"/>
-      <c r="AA107" s="39"/>
-      <c r="AB107" s="39"/>
-      <c r="AC107" s="60">
-        <f>AC105*(1+AF107)/(AF108-AF107)</f>
-        <v>201078977461.51123</v>
-      </c>
-      <c r="AD107" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE107" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF107" s="45">
+      <c r="A107" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-7237000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>13293000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>25300000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>132609000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>132358000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>50416000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>247017000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>76336000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>278931000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>242059000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>268030000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>-66967000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-22239000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>-128033000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>-918645000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>-1658814000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>-2012970000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>-2893011000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>-3140357000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>1929154000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>-131975000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1618528000</v>
+      </c>
+      <c r="Y107" s="27"/>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="27"/>
+      <c r="AC107" s="31">
+        <f>AC106*(1+AF107)/(AF108-AF107)</f>
+        <v>204665610221.10709</v>
+      </c>
+      <c r="AD107" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE107" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y108" s="42">
-        <f t="shared" ref="Y108:AA108" si="10">Y107+Y106</f>
-        <v>1752231946.7040081</v>
-      </c>
-      <c r="Z108" s="42">
-        <f t="shared" si="10"/>
-        <v>1896980957.4194069</v>
-      </c>
-      <c r="AA108" s="42">
-        <f t="shared" si="10"/>
-        <v>2053687446.7908125</v>
-      </c>
-      <c r="AB108" s="42">
-        <f>AB107+AB106</f>
-        <v>2223339202.5419698</v>
-      </c>
-      <c r="AC108" s="60">
-        <f>AC107+AC105</f>
-        <v>214129977461.51123</v>
-      </c>
-      <c r="AD108" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE108" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF108" s="47">
+      <c r="Y108" s="31">
+        <f t="shared" ref="Y108:AB108" si="12">Y107+Y106</f>
+        <v>6650000000</v>
+      </c>
+      <c r="Z108" s="31">
+        <f t="shared" si="12"/>
+        <v>8544000000</v>
+      </c>
+      <c r="AA108" s="31">
+        <f t="shared" si="12"/>
+        <v>10269000000</v>
+      </c>
+      <c r="AB108" s="31">
+        <f t="shared" si="12"/>
+        <v>11224000000</v>
+      </c>
+      <c r="AC108" s="31">
+        <f>AC107+AC106</f>
+        <v>218038610221.10709</v>
+      </c>
+      <c r="AD108" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE108" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF108" s="55">
         <f>AF105</f>
-        <v>9.1527466813682984E-2</v>
+        <v>9.1974246358201145E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="Y109" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z109" s="62"/>
+        <v>148</v>
+      </c>
+      <c r="Z109" s="61"/>
     </row>
     <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y110" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z110" s="49">
+      <c r="Y110" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z110" s="50">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>144541689107.88553</v>
+        <v>169469587858.03235</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y111" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z111" s="49">
+      <c r="Y111" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z111" s="50">
         <f>X40</f>
         <v>6058452000</v>
       </c>
     </row>
     <row r="112" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y112" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z112" s="49">
+      <c r="Y112" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z112" s="50">
         <f>AF99</f>
         <v>14353076000</v>
       </c>
     </row>
     <row r="113" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y113" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z113" s="49">
+      <c r="Y113" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z113" s="50">
         <f>Z110+Z111-Z112</f>
-        <v>136247065107.88553</v>
+        <v>161174963858.03235</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y114" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z114" s="50">
+      <c r="Y114" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z114" s="62">
         <f>X34*(1+(5*AD16))</f>
         <v>455826608.70267093</v>
       </c>
     </row>
     <row r="115" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y115" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z115" s="58">
+      <c r="Y115" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z115" s="64">
         <f>Z113/Z114</f>
-        <v>298.9010788458765</v>
+        <v>353.58831797194279</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y116" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z116" s="57" cm="1">
+      <c r="Y116" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z116" s="65" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price",TRUE)</f>
         <v>422.48</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y117" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z117" s="53">
+      <c r="Y117" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z117" s="66">
         <f>Z115/Z116-1</f>
-        <v>-0.29250833448713198</v>
+        <v>-0.16306495462047255</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y118" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z118" s="54" t="str">
+      <c r="Y118" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z118" s="67" t="str">
         <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
         <v>SELL</v>
+      </c>
+    </row>
+    <row r="132" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD132" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -11654,9 +12166,10 @@
     <hyperlink ref="W74" r:id="rId45" tooltip="https://www.sec.gov/Archives/edgar/data/1065280/000106528022000036/0001065280-22-000036-index.htm" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="X36" r:id="rId46" tooltip="https://www.sec.gov/Archives/edgar/data/1065280/000106528023000035/0001065280-23-000035-index.htm" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
     <hyperlink ref="X74" r:id="rId47" tooltip="https://www.sec.gov/Archives/edgar/data/1065280/000106528023000035/0001065280-23-000035-index.htm" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Y1" r:id="rId48" display="https://simplywall.st/stocks/us/media/nasdaq-nflx/netflix/future" xr:uid="{597824A8-5611-BD48-811A-9F209F2EDF56}"/>
+    <hyperlink ref="Y1" r:id="rId48" display="https://finbox.com/NASDAQGS:NFLX/explorer/revenue_proj" xr:uid="{597824A8-5611-BD48-811A-9F209F2EDF56}"/>
+    <hyperlink ref="AD106" r:id="rId49" xr:uid="{76D40160-0188-3440-ABA1-1E5F1349B29B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId49"/>
+  <drawing r:id="rId50"/>
 </worksheet>
 </file>
--- a/Technology/Software/Netflix.xlsx
+++ b/Technology/Software/Netflix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D465BC-37F0-D349-B93B-CF76BBA97A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F016B9-9220-5E49-8A89-D44AC9BF6007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -577,6 +577,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
   </si>
 </sst>
 </file>
@@ -589,8 +592,8 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -935,16 +938,16 @@
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -952,64 +955,64 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2500,11 +2503,16 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
+      <sheetName val="Growth Portfolio"/>
+      <sheetName val="Value Portfolio"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="Value Compounders"/>
+      <sheetName val="Top 20"/>
+      <sheetName val="Still Researching"/>
       <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
-      <sheetName val="Value"/>
+      <sheetName val="Value HFs"/>
       <sheetName val="Aggressive Growth"/>
       <sheetName val="Other"/>
       <sheetName val="Short List"/>
@@ -2513,7 +2521,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.308E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2533,6 +2541,11 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2658,11 +2671,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>448.65</v>
-    <v>169.702</v>
-    <v>1.2627999999999999</v>
-    <v>-1.97</v>
-    <v>-4.6410000000000002E-3</v>
+    <v>485</v>
+    <v>211.73</v>
+    <v>1.2932999999999999</v>
+    <v>1.53</v>
+    <v>3.797E-3</v>
+    <v>0.46</v>
+    <v>1.137E-3</v>
     <v>USD</v>
     <v>Netflix, Inc. is an entertainment services company. The Company has paid memberships in over 190 countries with television (TV) series, films and games across a variety of genres and languages. Its members can play, pause and resume to watch, as much as they want, anytime, anywhere, and can change their plans at any time. It offers a variety of streaming membership plans, the price of which varies by country, and the features of the plan. The pricing of its plans ranges from United States dollar equivalent of approximately $1 to $26 per month. It offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes, and mobile devices. The Company has agreements with various cable, satellite and telecommunications operators to make its service available through the TV set-top boxes of these service providers. The Company acquires, licenses, and produces content, including original programming.</v>
     <v>12800</v>
@@ -2670,24 +2685,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>424.71</v>
+    <v>406.52</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999929907033</v>
+    <v>45156.999593228909</v>
     <v>0</v>
-    <v>418.68009999999998</v>
-    <v>187809723928</v>
+    <v>398.15</v>
+    <v>179266200000</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>422.93</v>
-    <v>49.7271</v>
-    <v>424.45</v>
-    <v>422.48</v>
-    <v>444541100</v>
+    <v>399.33</v>
+    <v>46.918599999999998</v>
+    <v>403</v>
+    <v>404.53</v>
+    <v>404.99</v>
+    <v>443146800</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>4148</v>
-    <v>7734501</v>
+    <v>4312196</v>
+    <v>7594133</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -2719,6 +2735,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2739,6 +2757,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2755,7 +2774,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2766,13 +2785,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2838,13 +2860,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2889,6 +2917,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2896,6 +2927,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3257,10 +3291,10 @@
   <dimension ref="A1:AG132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB19" sqref="AB19"/>
+      <selection pane="bottomRight" activeCell="AA99" sqref="AA99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3554,91 +3588,91 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="68">
+      <c r="C4" s="63">
         <f>(C3/B3)-1</f>
         <v>1.1148938541260378</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="63">
         <f>(D3/C3)-1</f>
         <v>1.0129360311940143</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="63">
         <f>(E3/D3)-1</f>
         <v>0.78162506707851787</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="63">
         <f t="shared" ref="F4:AC4" si="0">(F3/E3)-1</f>
         <v>0.85947113424403931</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="63">
         <f t="shared" si="0"/>
         <v>0.34763979866779393</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="63">
         <f t="shared" si="0"/>
         <v>0.46092202875055155</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="63">
         <f t="shared" si="0"/>
         <v>0.20937932695201966</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="63">
         <f t="shared" si="0"/>
         <v>0.13217930210562989</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="63">
         <f t="shared" si="0"/>
         <v>0.22394426161515568</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="63">
         <f t="shared" si="0"/>
         <v>0.2947764701374449</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="63">
         <f t="shared" si="0"/>
         <v>0.48179966475926239</v>
       </c>
-      <c r="N4" s="68">
+      <c r="N4" s="63">
         <f t="shared" si="0"/>
         <v>0.12628967879380015</v>
       </c>
-      <c r="O4" s="68">
+      <c r="O4" s="63">
         <f t="shared" si="0"/>
         <v>0.21203109094828276</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="63">
         <f t="shared" si="0"/>
         <v>0.25833306283006152</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="63">
         <f t="shared" si="0"/>
         <v>0.23159576184233854</v>
       </c>
-      <c r="R4" s="68">
+      <c r="R4" s="63">
         <f t="shared" si="0"/>
         <v>0.30255249973043785</v>
       </c>
-      <c r="S4" s="68">
+      <c r="S4" s="63">
         <f t="shared" si="0"/>
         <v>0.32410273785598798</v>
       </c>
-      <c r="T4" s="68">
+      <c r="T4" s="63">
         <f t="shared" si="0"/>
         <v>0.35078497180252355</v>
       </c>
-      <c r="U4" s="68">
+      <c r="U4" s="63">
         <f t="shared" si="0"/>
         <v>0.27618157667990073</v>
       </c>
-      <c r="V4" s="68">
+      <c r="V4" s="63">
         <f t="shared" si="0"/>
         <v>0.24010228588401517</v>
       </c>
-      <c r="W4" s="68">
+      <c r="W4" s="63">
         <f t="shared" si="0"/>
         <v>0.18810119484449861</v>
       </c>
-      <c r="X4" s="68">
+      <c r="X4" s="63">
         <f t="shared" si="0"/>
         <v>6.45739131769969E-2</v>
       </c>
@@ -4714,15 +4748,15 @@
       </c>
       <c r="AE16" s="32">
         <f>AF101/X3</f>
-        <v>5.9404224796974905</v>
+        <v>5.6701907763742838</v>
       </c>
       <c r="AF16" s="32">
         <f>AF101/X28</f>
-        <v>41.810530171035843</v>
+        <v>39.908555888300867</v>
       </c>
       <c r="AG16" s="33">
         <f>AF101/X107</f>
-        <v>116.03736477095237</v>
+        <v>110.75878823227031</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -4979,15 +5013,15 @@
       </c>
       <c r="AE19" s="32">
         <f>AF101/Y3</f>
-        <v>5.417067318373233</v>
+        <v>5.1706432073839057</v>
       </c>
       <c r="AF19" s="32">
         <f>AF101/Y28</f>
-        <v>35.269431723568076</v>
+        <v>33.665014084507042</v>
       </c>
       <c r="AG19" s="33">
         <f>AF101/Y106</f>
-        <v>28.242063748571429</v>
+        <v>26.957323308270677</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5283,7 +5317,7 @@
       </c>
       <c r="AG22" s="35">
         <f>X107/AF101</f>
-        <v>8.6179137381645361E-3</v>
+        <v>9.0286289328384266E-3</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -9932,10 +9966,10 @@
       <c r="X83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE83" s="41" t="s">
+      <c r="AE83" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="AF83" s="42"/>
+      <c r="AF83" s="66"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10010,10 +10044,10 @@
       <c r="X84" s="1">
         <v>-158543000</v>
       </c>
-      <c r="AE84" s="43" t="s">
+      <c r="AE84" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="AF84" s="43"/>
+      <c r="AF84" s="67"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10088,10 +10122,10 @@
       <c r="X85" s="1">
         <v>-190197000</v>
       </c>
-      <c r="AE85" s="44" t="s">
+      <c r="AE85" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="AF85" s="45">
+      <c r="AF85" s="42">
         <f>X17</f>
         <v>706212000</v>
       </c>
@@ -10169,10 +10203,10 @@
       <c r="X86" s="1">
         <v>-16479296000</v>
       </c>
-      <c r="AE86" s="44" t="s">
+      <c r="AE86" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="AF86" s="45">
+      <c r="AF86" s="42">
         <f>X56</f>
         <v>0</v>
       </c>
@@ -10250,10 +10284,10 @@
       <c r="X87" s="10">
         <v>2026257000</v>
       </c>
-      <c r="AE87" s="44" t="s">
+      <c r="AE87" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="AF87" s="45">
+      <c r="AF87" s="42">
         <f>X61</f>
         <v>14353076000</v>
       </c>
@@ -10331,10 +10365,10 @@
       <c r="X88" s="1">
         <v>-407729000</v>
       </c>
-      <c r="AE88" s="46" t="s">
+      <c r="AE88" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="AF88" s="47">
+      <c r="AF88" s="44">
         <f>AF85/(AF86+AF87)</f>
         <v>4.9202832897979498E-2</v>
       </c>
@@ -10435,10 +10469,10 @@
         <f t="shared" si="9"/>
         <v>1.2896470249608183E-2</v>
       </c>
-      <c r="AE89" s="44" t="s">
+      <c r="AE89" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="AF89" s="45">
+      <c r="AF89" s="42">
         <f>X27</f>
         <v>772005000</v>
       </c>
@@ -10516,10 +10550,10 @@
       <c r="X90" s="1">
         <v>-757387000</v>
       </c>
-      <c r="AE90" s="44" t="s">
+      <c r="AE90" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AF90" s="45">
+      <c r="AF90" s="42">
         <f>X25</f>
         <v>5263929000</v>
       </c>
@@ -10597,10 +10631,10 @@
       <c r="X91" s="1">
         <v>-911276000</v>
       </c>
-      <c r="AE91" s="46" t="s">
+      <c r="AE91" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="AF91" s="47">
+      <c r="AF91" s="44">
         <f>AF89/AF90</f>
         <v>0.14665946292208729</v>
       </c>
@@ -10678,10 +10712,10 @@
       <c r="X92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE92" s="46" t="s">
+      <c r="AE92" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AF92" s="47">
+      <c r="AF92" s="44">
         <f>AF88*(1-AF91)</f>
         <v>4.1986771850916614E-2</v>
       </c>
@@ -10759,10 +10793,10 @@
       <c r="X93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE93" s="43" t="s">
+      <c r="AE93" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="AF93" s="43"/>
+      <c r="AF93" s="67"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10837,12 +10871,12 @@
       <c r="X94" s="10">
         <v>-2076392000</v>
       </c>
-      <c r="AE94" s="44" t="s">
+      <c r="AE94" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="AF94" s="59">
+      <c r="AF94" s="45">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.308E-2</v>
       </c>
     </row>
     <row r="95" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10918,12 +10952,12 @@
       <c r="X95" s="1">
         <v>-700000000</v>
       </c>
-      <c r="AE95" s="44" t="s">
+      <c r="AE95" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="AF95" s="49" cm="1">
+      <c r="AF95" s="46" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.2627999999999999</v>
+        <v>1.2932999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10999,10 +11033,10 @@
       <c r="X96" s="1">
         <v>35746000</v>
       </c>
-      <c r="AE96" s="44" t="s">
+      <c r="AE96" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="AF96" s="48">
+      <c r="AF96" s="45">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11079,12 +11113,12 @@
       <c r="X97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE97" s="46" t="s">
+      <c r="AE97" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="AF97" s="47">
+      <c r="AF97" s="44">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>9.5794463999999996E-2</v>
+        <v>9.6001836000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11160,10 +11194,10 @@
       <c r="X98" s="1">
         <v>0</v>
       </c>
-      <c r="AE98" s="43" t="s">
+      <c r="AE98" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AF98" s="43"/>
+      <c r="AF98" s="67"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11238,10 +11272,10 @@
       <c r="X99" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE99" s="44" t="s">
+      <c r="AE99" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="AF99" s="45">
+      <c r="AF99" s="42">
         <f>AF86+AF87</f>
         <v>14353076000</v>
       </c>
@@ -11319,12 +11353,12 @@
       <c r="X100" s="10">
         <v>-664254000</v>
       </c>
-      <c r="AE100" s="46" t="s">
+      <c r="AE100" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="AF100" s="47">
+      <c r="AF100" s="44">
         <f>AF99/AF103</f>
-        <v>7.0997611851002396E-2</v>
+        <v>7.4130408379380577E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11400,12 +11434,12 @@
       <c r="X101" s="1">
         <v>-170140000</v>
       </c>
-      <c r="AE101" s="44" t="s">
+      <c r="AE101" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="AF101" s="50" cm="1">
+      <c r="AF101" s="47" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>187809723928</v>
+        <v>179266200000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11481,12 +11515,12 @@
       <c r="X102" s="10">
         <v>-884529000</v>
       </c>
-      <c r="AE102" s="46" t="s">
+      <c r="AE102" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="AF102" s="47">
+      <c r="AF102" s="44">
         <f>AF101/AF103</f>
-        <v>0.9290023881489976</v>
+        <v>0.92586959162061944</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11562,12 +11596,15 @@
       <c r="X103" s="1">
         <v>6055111000</v>
       </c>
-      <c r="AE103" s="46" t="s">
+      <c r="AD103" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE103" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="AF103" s="51">
+      <c r="AF103" s="48">
         <f>AF99+AF101</f>
-        <v>202162799928</v>
+        <v>193619276000</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11643,10 +11680,34 @@
       <c r="X104" s="11">
         <v>5170582000</v>
       </c>
-      <c r="AE104" s="43" t="s">
+      <c r="Y104" s="68">
+        <f>(Y106/X107)-1</f>
+        <v>3.1086715830680713</v>
+      </c>
+      <c r="Z104" s="68">
+        <f>(Z106/Y106)-1</f>
+        <v>0.28481203007518796</v>
+      </c>
+      <c r="AA104" s="68">
+        <f>(AA106/Z106)-1</f>
+        <v>0.20189606741573041</v>
+      </c>
+      <c r="AB104" s="68">
+        <f>(AB106/AA106)-1</f>
+        <v>9.2998344532086774E-2</v>
+      </c>
+      <c r="AC104" s="68">
+        <f>(AC106/AB106)-1</f>
+        <v>0.19146471846044189</v>
+      </c>
+      <c r="AD104" s="68">
+        <f>SUM(Y104:AC104)/5</f>
+        <v>0.77596854871030385</v>
+      </c>
+      <c r="AE104" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="AF104" s="43"/>
+      <c r="AF104" s="67"/>
     </row>
     <row r="105" spans="1:32" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11767,12 +11828,12 @@
       <c r="AD105" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="AE105" s="52" t="s">
+      <c r="AE105" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="AF105" s="53">
+      <c r="AF105" s="50">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>9.1974246358201145E-2</v>
+        <v>9.1997677235990019E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11781,91 +11842,91 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:X106" si="12">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="12"/>
         <v>-2.8368108332181841</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.90325735349432024</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="12"/>
         <v>4.2414624505928851</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="12"/>
         <v>-1.8927825411547694E-3</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.61909367019749473</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="12"/>
         <v>3.8995755315772769</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.69096863778606332</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="12"/>
         <v>2.6539902536155942</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.13219039834224233</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.10729202384542602</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="12"/>
         <v>-1.2498488975114725</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.66791106067167405</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="12"/>
         <v>4.7571383605377937</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="12"/>
         <v>6.1750642412503023</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.80571820452949727</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.21349952435896968</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.43718535298588646</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="12"/>
         <v>8.5497773772723384E-2</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="12"/>
         <v>-1.6143104112048408</v>
       </c>
       <c r="W106" s="15">
-        <f>(W107/V107)-1</f>
+        <f t="shared" si="12"/>
         <v>-1.0684108163474766</v>
       </c>
       <c r="X106" s="15">
-        <f>(X107/W107)-1</f>
+        <f t="shared" si="12"/>
         <v>-13.263898465618489</v>
       </c>
       <c r="Y106" s="30">
@@ -11886,16 +11947,16 @@
       <c r="AD106" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="AE106" s="54" t="s">
+      <c r="AE106" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="AF106" s="55">
+      <c r="AF106" s="52">
         <f>(SUM(Y4:AC4)/5)</f>
         <v>9.7512496938202894E-2</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="60" t="s">
+      <c r="A107" s="56" t="s">
         <v>166</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -11973,133 +12034,133 @@
       <c r="AB107" s="27"/>
       <c r="AC107" s="31">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>204665610221.10709</v>
+        <v>204594033188.90967</v>
       </c>
       <c r="AD107" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AE107" s="56" t="s">
+      <c r="AE107" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="AF107" s="57">
+      <c r="AF107" s="54">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="Y108" s="31">
-        <f t="shared" ref="Y108:AB108" si="12">Y107+Y106</f>
+        <f t="shared" ref="Y108:AB108" si="13">Y107+Y106</f>
         <v>6650000000</v>
       </c>
       <c r="Z108" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8544000000</v>
       </c>
       <c r="AA108" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10269000000</v>
       </c>
       <c r="AB108" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11224000000</v>
       </c>
       <c r="AC108" s="31">
         <f>AC107+AC106</f>
-        <v>218038610221.10709</v>
+        <v>217967033188.90967</v>
       </c>
       <c r="AD108" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AE108" s="58" t="s">
+      <c r="AE108" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="AF108" s="55">
+      <c r="AF108" s="52">
         <f>AF105</f>
-        <v>9.1974246358201145E-2</v>
+        <v>9.1997677235990019E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="61" t="s">
+      <c r="Y109" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="Z109" s="61"/>
+      <c r="Z109" s="64"/>
     </row>
     <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y110" s="62" t="s">
+      <c r="Y110" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="Z110" s="50">
+      <c r="Z110" s="47">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>169469587858.03235</v>
+        <v>169406802630.83347</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y111" s="62" t="s">
+      <c r="Y111" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="Z111" s="50">
+      <c r="Z111" s="47">
         <f>X40</f>
         <v>6058452000</v>
       </c>
     </row>
     <row r="112" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y112" s="62" t="s">
+      <c r="Y112" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="Z112" s="50">
+      <c r="Z112" s="47">
         <f>AF99</f>
         <v>14353076000</v>
       </c>
     </row>
     <row r="113" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y113" s="62" t="s">
+      <c r="Y113" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="Z113" s="50">
+      <c r="Z113" s="47">
         <f>Z110+Z111-Z112</f>
-        <v>161174963858.03235</v>
+        <v>161112178630.83347</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y114" s="62" t="s">
+      <c r="Y114" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="Z114" s="62">
+      <c r="Z114" s="57">
         <f>X34*(1+(5*AD16))</f>
         <v>455826608.70267093</v>
       </c>
     </row>
     <row r="115" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y115" s="63" t="s">
+      <c r="Y115" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="Z115" s="64">
+      <c r="Z115" s="59">
         <f>Z113/Z114</f>
-        <v>353.58831797194279</v>
+        <v>353.45057869564738</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y116" s="62" t="s">
+      <c r="Y116" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="Z116" s="65" cm="1">
+      <c r="Z116" s="60" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price",TRUE)</f>
-        <v>422.48</v>
+        <v>404.53</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y117" s="63" t="s">
+      <c r="Y117" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="Z117" s="66">
+      <c r="Z117" s="61">
         <f>Z115/Z116-1</f>
-        <v>-0.16306495462047255</v>
+        <v>-0.12626856179851331</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y118" s="63" t="s">
+      <c r="Y118" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="Z118" s="67" t="str">
+      <c r="Z118" s="62" t="str">
         <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
